--- a/shirajganj_sadar.xlsx
+++ b/shirajganj_sadar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tawsif/Downloads/csv-to-pdf-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A3B3ABF-2807-2A4A-8B47-99936F698FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63D94A6-A981-C04E-96C4-8188B591F16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="0" windowWidth="19400" windowHeight="21000" xr2:uid="{4B0A96A3-5DBC-704A-805C-C63247901FE7}"/>
+    <workbookView xWindow="14200" yWindow="0" windowWidth="19400" windowHeight="21000" xr2:uid="{4B0A96A3-5DBC-704A-805C-C63247901FE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-5000445]0"/>
+    <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -829,7 +829,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2704D1E-A6BE-954D-930C-42043A0C7FD3}">
   <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B299" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G310"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,8 +1183,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>394</v>
+      <c r="A2" s="8">
+        <v>117</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -1206,8 +1206,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>395</v>
+      <c r="A3" s="8">
+        <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>9</v>
@@ -1229,8 +1229,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>396</v>
+      <c r="A4" s="8">
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -1252,8 +1252,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>397</v>
+      <c r="A5" s="8">
+        <v>118</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -1275,8 +1275,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>398</v>
+      <c r="A6" s="8">
+        <v>119</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
@@ -1298,8 +1298,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>399</v>
+      <c r="A7" s="8">
+        <v>119</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -1321,8 +1321,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>400</v>
+      <c r="A8" s="8">
+        <v>120</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
@@ -1344,8 +1344,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>401</v>
+      <c r="A9" s="8">
+        <v>120</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -1367,8 +1367,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>402</v>
+      <c r="A10" s="8">
+        <v>121</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1390,8 +1390,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>403</v>
+      <c r="A11" s="8">
+        <v>121</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>9</v>
@@ -1413,8 +1413,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>404</v>
+      <c r="A12" s="8">
+        <v>121</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
@@ -1436,8 +1436,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>405</v>
+      <c r="A13" s="8">
+        <v>121</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
@@ -1459,8 +1459,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>406</v>
+      <c r="A14" s="8">
+        <v>121</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>407</v>
+      <c r="A15" s="8">
+        <v>121</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
@@ -1505,8 +1505,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>408</v>
+      <c r="A16" s="8">
+        <v>121</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
@@ -1528,8 +1528,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>409</v>
+      <c r="A17" s="8">
+        <v>121</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1551,8 +1551,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>410</v>
+      <c r="A18" s="8">
+        <v>122</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
@@ -1574,8 +1574,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
-        <v>411</v>
+      <c r="A19" s="8">
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>9</v>
@@ -1597,8 +1597,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
-        <v>412</v>
+      <c r="A20" s="8">
+        <v>122</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>7</v>
@@ -1620,8 +1620,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
-        <v>413</v>
+      <c r="A21" s="8">
+        <v>122</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>9</v>
@@ -1643,8 +1643,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
-        <v>414</v>
+      <c r="A22" s="8">
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>7</v>
@@ -1666,8 +1666,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>415</v>
+      <c r="A23" s="8">
+        <v>122</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>9</v>
@@ -1689,8 +1689,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>416</v>
+      <c r="A24" s="8">
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
@@ -1712,8 +1712,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>417</v>
+      <c r="A25" s="8">
+        <v>123</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
@@ -1735,8 +1735,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>418</v>
+      <c r="A26" s="8">
+        <v>123</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
@@ -1758,8 +1758,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>419</v>
+      <c r="A27" s="8">
+        <v>123</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>9</v>
@@ -1781,8 +1781,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>420</v>
+      <c r="A28" s="8">
+        <v>124</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>7</v>
@@ -1804,8 +1804,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>421</v>
+      <c r="A29" s="8">
+        <v>124</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>9</v>
@@ -1827,8 +1827,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>422</v>
+      <c r="A30" s="8">
+        <v>124</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>7</v>
@@ -1850,8 +1850,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>423</v>
+      <c r="A31" s="8">
+        <v>124</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>9</v>
@@ -1873,8 +1873,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>424</v>
+      <c r="A32" s="8">
+        <v>125</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>7</v>
@@ -1896,8 +1896,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>425</v>
+      <c r="A33" s="8">
+        <v>125</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>9</v>
@@ -1919,8 +1919,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>426</v>
+      <c r="A34" s="8">
+        <v>125</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>7</v>
@@ -1942,8 +1942,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>427</v>
+      <c r="A35" s="8">
+        <v>125</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>9</v>
@@ -1965,8 +1965,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>428</v>
+      <c r="A36" s="8">
+        <v>125</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>7</v>
@@ -1988,8 +1988,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>429</v>
+      <c r="A37" s="8">
+        <v>125</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>9</v>
@@ -2011,8 +2011,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>430</v>
+      <c r="A38" s="8">
+        <v>125</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>7</v>
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>431</v>
+      <c r="A39" s="8">
+        <v>125</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>9</v>
@@ -2057,8 +2057,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>432</v>
+      <c r="A40" s="8">
+        <v>126</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>7</v>
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>433</v>
+      <c r="A41" s="8">
+        <v>126</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>9</v>
@@ -2103,8 +2103,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
-        <v>434</v>
+      <c r="A42" s="8">
+        <v>126</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>7</v>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
-        <v>435</v>
+      <c r="A43" s="8">
+        <v>126</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>9</v>
@@ -2149,8 +2149,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>436</v>
+      <c r="A44" s="8">
+        <v>127</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>7</v>
@@ -2172,8 +2172,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>437</v>
+      <c r="A45" s="8">
+        <v>127</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>9</v>
@@ -2195,8 +2195,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>438</v>
+      <c r="A46" s="8">
+        <v>127</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>7</v>
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>439</v>
+      <c r="A47" s="8">
+        <v>127</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>9</v>
@@ -2241,8 +2241,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>440</v>
+      <c r="A48" s="8">
+        <v>127</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>7</v>
@@ -2264,8 +2264,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
-        <v>441</v>
+      <c r="A49" s="8">
+        <v>127</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>9</v>
@@ -2287,8 +2287,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>442</v>
+      <c r="A50" s="8">
+        <v>127</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>7</v>
@@ -2310,8 +2310,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>443</v>
+      <c r="A51" s="8">
+        <v>127</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>9</v>
@@ -2333,8 +2333,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
-        <v>444</v>
+      <c r="A52" s="8">
+        <v>128</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>7</v>
@@ -2356,8 +2356,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
-        <v>445</v>
+      <c r="A53" s="8">
+        <v>128</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>9</v>
@@ -2379,8 +2379,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
-        <v>446</v>
+      <c r="A54" s="8">
+        <v>129</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>7</v>
@@ -2402,8 +2402,8 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>447</v>
+      <c r="A55" s="8">
+        <v>129</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>9</v>
@@ -2425,8 +2425,8 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>448</v>
+      <c r="A56" s="8">
+        <v>129</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>7</v>
@@ -2448,8 +2448,8 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
-        <v>449</v>
+      <c r="A57" s="8">
+        <v>129</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>9</v>
@@ -2471,8 +2471,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
-        <v>450</v>
+      <c r="A58" s="8">
+        <v>130</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>9</v>
@@ -2494,8 +2494,8 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
-        <v>451</v>
+      <c r="A59" s="8">
+        <v>130</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>9</v>
@@ -2517,8 +2517,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
-        <v>452</v>
+      <c r="A60" s="8">
+        <v>130</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>9</v>
@@ -2540,8 +2540,8 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
-        <v>453</v>
+      <c r="A61" s="8">
+        <v>131</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>7</v>
@@ -2563,8 +2563,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
-        <v>454</v>
+      <c r="A62" s="8">
+        <v>131</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>7</v>
@@ -2586,8 +2586,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
-        <v>455</v>
+      <c r="A63" s="8">
+        <v>131</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>7</v>
@@ -2609,8 +2609,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
-        <v>456</v>
+      <c r="A64" s="8">
+        <v>132</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>7</v>
@@ -2632,8 +2632,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
-        <v>457</v>
+      <c r="A65" s="8">
+        <v>132</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>9</v>
@@ -2655,8 +2655,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
-        <v>458</v>
+      <c r="A66" s="8">
+        <v>132</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>7</v>
@@ -2678,8 +2678,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
-        <v>459</v>
+      <c r="A67" s="8">
+        <v>132</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>9</v>
@@ -2701,8 +2701,8 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
-        <v>460</v>
+      <c r="A68" s="8">
+        <v>133</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>9</v>
@@ -2724,8 +2724,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
-        <v>460</v>
+      <c r="A69" s="8">
+        <v>133</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>7</v>
@@ -2747,7 +2747,9 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
+      <c r="A70" s="8">
+        <v>133</v>
+      </c>
       <c r="B70" s="5" t="s">
         <v>9</v>
       </c>
@@ -2768,7 +2770,9 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
+      <c r="A71" s="8">
+        <v>133</v>
+      </c>
       <c r="B71" s="5" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2793,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
+      <c r="A72" s="8">
+        <v>133</v>
+      </c>
       <c r="B72" s="5" t="s">
         <v>9</v>
       </c>
@@ -2810,7 +2816,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
+      <c r="A73" s="8">
+        <v>133</v>
+      </c>
       <c r="B73" s="5" t="s">
         <v>7</v>
       </c>
@@ -2831,8 +2839,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
-        <v>461</v>
+      <c r="A74" s="8">
+        <v>134</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>7</v>
@@ -2854,8 +2862,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
-        <v>462</v>
+      <c r="A75" s="8">
+        <v>134</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>9</v>
@@ -2877,8 +2885,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
-        <v>463</v>
+      <c r="A76" s="8">
+        <v>135</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>7</v>
@@ -2900,8 +2908,8 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
-        <v>464</v>
+      <c r="A77" s="8">
+        <v>135</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>9</v>
@@ -2923,8 +2931,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
-        <v>465</v>
+      <c r="A78" s="8">
+        <v>135</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>7</v>
@@ -2946,8 +2954,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
-        <v>466</v>
+      <c r="A79" s="8">
+        <v>135</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>9</v>
@@ -2969,8 +2977,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
-        <v>467</v>
+      <c r="A80" s="8">
+        <v>135</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>7</v>
@@ -2992,8 +3000,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
-        <v>468</v>
+      <c r="A81" s="8">
+        <v>135</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>9</v>
@@ -3015,8 +3023,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>469</v>
+      <c r="A82" s="8">
+        <v>136</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>7</v>
@@ -3038,8 +3046,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
-        <v>470</v>
+      <c r="A83" s="8">
+        <v>136</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>9</v>
@@ -3061,8 +3069,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
-        <v>471</v>
+      <c r="A84" s="8">
+        <v>137</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>7</v>
@@ -3084,8 +3092,8 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>472</v>
+      <c r="A85" s="8">
+        <v>137</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>9</v>
@@ -3107,8 +3115,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
-        <v>473</v>
+      <c r="A86" s="8">
+        <v>137</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>7</v>
@@ -3130,8 +3138,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
-        <v>474</v>
+      <c r="A87" s="8">
+        <v>137</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>9</v>
@@ -3153,8 +3161,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
-        <v>475</v>
+      <c r="A88" s="8">
+        <v>137</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>7</v>
@@ -3176,8 +3184,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
-        <v>476</v>
+      <c r="A89" s="8">
+        <v>137</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>9</v>
@@ -3199,8 +3207,8 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
-        <v>477</v>
+      <c r="A90" s="8">
+        <v>138</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>7</v>
@@ -3222,8 +3230,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
-        <v>478</v>
+      <c r="A91" s="8">
+        <v>138</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>9</v>
@@ -3245,8 +3253,8 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
-        <v>479</v>
+      <c r="A92" s="8">
+        <v>138</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>7</v>
@@ -3268,8 +3276,8 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
-        <v>480</v>
+      <c r="A93" s="8">
+        <v>138</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>9</v>
@@ -3291,8 +3299,8 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
-        <v>481</v>
+      <c r="A94" s="8">
+        <v>139</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>7</v>
@@ -3314,8 +3322,8 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
-        <v>482</v>
+      <c r="A95" s="8">
+        <v>139</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>9</v>
@@ -3337,8 +3345,8 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
-        <v>483</v>
+      <c r="A96" s="8">
+        <v>140</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>7</v>
@@ -3360,8 +3368,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
-        <v>484</v>
+      <c r="A97" s="8">
+        <v>140</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>9</v>
@@ -3383,8 +3391,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
-        <v>485</v>
+      <c r="A98" s="8">
+        <v>140</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>7</v>
@@ -3406,8 +3414,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
-        <v>486</v>
+      <c r="A99" s="8">
+        <v>140</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>9</v>
@@ -3429,8 +3437,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
-        <v>487</v>
+      <c r="A100" s="8">
+        <v>141</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>7</v>
@@ -3452,8 +3460,8 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
-        <v>488</v>
+      <c r="A101" s="8">
+        <v>141</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>9</v>
@@ -3475,8 +3483,8 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
-        <v>489</v>
+      <c r="A102" s="8">
+        <v>142</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>7</v>
@@ -3498,8 +3506,8 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
-        <v>490</v>
+      <c r="A103" s="8">
+        <v>142</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>9</v>
@@ -3521,8 +3529,8 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
-        <v>491</v>
+      <c r="A104" s="8">
+        <v>142</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>7</v>
@@ -3544,8 +3552,8 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
-        <v>492</v>
+      <c r="A105" s="8">
+        <v>142</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>9</v>
@@ -3567,8 +3575,8 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
-        <v>493</v>
+      <c r="A106" s="8">
+        <v>143</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>7</v>
@@ -3590,8 +3598,8 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
-        <v>494</v>
+      <c r="A107" s="8">
+        <v>143</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>9</v>
@@ -3613,8 +3621,8 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
-        <v>495</v>
+      <c r="A108" s="8">
+        <v>143</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>7</v>
@@ -3636,8 +3644,8 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
-        <v>496</v>
+      <c r="A109" s="8">
+        <v>143</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>9</v>
@@ -3659,8 +3667,8 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
-        <v>497</v>
+      <c r="A110" s="8">
+        <v>143</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>7</v>
@@ -3682,8 +3690,8 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
-        <v>498</v>
+      <c r="A111" s="8">
+        <v>143</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>9</v>
@@ -3705,8 +3713,8 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
-        <v>499</v>
+      <c r="A112" s="8">
+        <v>144</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>7</v>
@@ -3728,8 +3736,8 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
-        <v>500</v>
+      <c r="A113" s="8">
+        <v>144</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>9</v>
@@ -3751,8 +3759,8 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
-        <v>501</v>
+      <c r="A114" s="8">
+        <v>145</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>7</v>
@@ -3774,8 +3782,8 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
-        <v>502</v>
+      <c r="A115" s="8">
+        <v>145</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>9</v>
@@ -3797,8 +3805,8 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
-        <v>503</v>
+      <c r="A116" s="8">
+        <v>145</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>7</v>
@@ -3820,8 +3828,8 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
-        <v>504</v>
+      <c r="A117" s="8">
+        <v>145</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>9</v>
@@ -3843,8 +3851,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
-        <v>505</v>
+      <c r="A118" s="8">
+        <v>146</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>7</v>
@@ -3866,8 +3874,8 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
-        <v>506</v>
+      <c r="A119" s="8">
+        <v>146</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>9</v>
@@ -3889,8 +3897,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
-        <v>507</v>
+      <c r="A120" s="8">
+        <v>146</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>7</v>
@@ -3912,8 +3920,8 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
-        <v>508</v>
+      <c r="A121" s="8">
+        <v>146</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>9</v>
@@ -3935,8 +3943,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
-        <v>509</v>
+      <c r="A122" s="8">
+        <v>146</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>7</v>
@@ -3958,8 +3966,8 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
-        <v>510</v>
+      <c r="A123" s="8">
+        <v>146</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>9</v>
@@ -3981,8 +3989,8 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
-        <v>511</v>
+      <c r="A124" s="8">
+        <v>147</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>7</v>
@@ -4004,8 +4012,8 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
-        <v>512</v>
+      <c r="A125" s="8">
+        <v>147</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>9</v>
@@ -4027,8 +4035,8 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
-        <v>513</v>
+      <c r="A126" s="8">
+        <v>147</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>7</v>
@@ -4050,8 +4058,8 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
-        <v>514</v>
+      <c r="A127" s="8">
+        <v>147</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>9</v>
@@ -4073,8 +4081,8 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
-        <v>515</v>
+      <c r="A128" s="8">
+        <v>148</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>7</v>
@@ -4096,8 +4104,8 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
-        <v>516</v>
+      <c r="A129" s="8">
+        <v>148</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>9</v>
@@ -4119,8 +4127,8 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
-        <v>517</v>
+      <c r="A130" s="8">
+        <v>148</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>7</v>
@@ -4142,8 +4150,8 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
-        <v>518</v>
+      <c r="A131" s="8">
+        <v>148</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>9</v>
@@ -4165,8 +4173,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
-        <v>519</v>
+      <c r="A132" s="8">
+        <v>148</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>7</v>
@@ -4188,8 +4196,8 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
-        <v>520</v>
+      <c r="A133" s="8">
+        <v>148</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>9</v>
@@ -4211,8 +4219,8 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
-        <v>521</v>
+      <c r="A134" s="8">
+        <v>148</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>7</v>
@@ -4234,8 +4242,8 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
-        <v>522</v>
+      <c r="A135" s="8">
+        <v>148</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>9</v>
@@ -4257,8 +4265,8 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
-        <v>523</v>
+      <c r="A136" s="8">
+        <v>148</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>7</v>
@@ -4280,8 +4288,8 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
-        <v>524</v>
+      <c r="A137" s="8">
+        <v>148</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>9</v>
@@ -4303,8 +4311,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
-        <v>525</v>
+      <c r="A138" s="8">
+        <v>148</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>7</v>
@@ -4326,8 +4334,8 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
-        <v>526</v>
+      <c r="A139" s="8">
+        <v>148</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>9</v>
@@ -4349,8 +4357,8 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
-        <v>527</v>
+      <c r="A140" s="8">
+        <v>148</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>7</v>
@@ -4372,8 +4380,8 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
-        <v>528</v>
+      <c r="A141" s="8">
+        <v>148</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>9</v>
@@ -4395,8 +4403,8 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
-        <v>529</v>
+      <c r="A142" s="8">
+        <v>148</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>7</v>
@@ -4418,8 +4426,8 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
-        <v>530</v>
+      <c r="A143" s="8">
+        <v>148</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>9</v>
@@ -4441,8 +4449,8 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
-        <v>531</v>
+      <c r="A144" s="8">
+        <v>148</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>7</v>
@@ -4464,8 +4472,8 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
-        <v>532</v>
+      <c r="A145" s="8">
+        <v>148</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>9</v>
@@ -4487,8 +4495,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
-        <v>533</v>
+      <c r="A146" s="8">
+        <v>149</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>7</v>
@@ -4510,8 +4518,8 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
-        <v>534</v>
+      <c r="A147" s="8">
+        <v>149</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>9</v>
@@ -4533,8 +4541,8 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
-        <v>535</v>
+      <c r="A148" s="8">
+        <v>149</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>7</v>
@@ -4556,8 +4564,8 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
-        <v>536</v>
+      <c r="A149" s="8">
+        <v>149</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>9</v>
@@ -4579,8 +4587,8 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
-        <v>537</v>
+      <c r="A150" s="8">
+        <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>7</v>
@@ -4602,8 +4610,8 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
-        <v>538</v>
+      <c r="A151" s="8">
+        <v>149</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>9</v>
@@ -4625,8 +4633,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="5">
-        <v>539</v>
+      <c r="A152" s="8">
+        <v>149</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>7</v>
@@ -4648,8 +4656,8 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="5">
-        <v>540</v>
+      <c r="A153" s="8">
+        <v>149</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>9</v>
@@ -4671,8 +4679,8 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="5">
-        <v>541</v>
+      <c r="A154" s="8">
+        <v>149</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>7</v>
@@ -4694,8 +4702,8 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="5">
-        <v>542</v>
+      <c r="A155" s="8">
+        <v>149</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>9</v>
@@ -4717,8 +4725,8 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="5">
-        <v>543</v>
+      <c r="A156" s="8">
+        <v>149</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>7</v>
@@ -4740,8 +4748,8 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="5">
-        <v>544</v>
+      <c r="A157" s="8">
+        <v>149</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>9</v>
@@ -4763,8 +4771,8 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="5">
-        <v>545</v>
+      <c r="A158" s="8">
+        <v>149</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>7</v>
@@ -4786,8 +4794,8 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="5">
-        <v>546</v>
+      <c r="A159" s="8">
+        <v>149</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>9</v>
@@ -4809,8 +4817,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="5">
-        <v>547</v>
+      <c r="A160" s="8">
+        <v>150</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>7</v>
@@ -4832,8 +4840,8 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" s="5">
-        <v>548</v>
+      <c r="A161" s="8">
+        <v>150</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>9</v>
@@ -4855,8 +4863,8 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="5">
-        <v>549</v>
+      <c r="A162" s="8">
+        <v>150</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>7</v>
@@ -4878,8 +4886,8 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" s="5">
-        <v>550</v>
+      <c r="A163" s="8">
+        <v>150</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>9</v>
@@ -4901,8 +4909,8 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" s="5">
-        <v>551</v>
+      <c r="A164" s="8">
+        <v>150</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>7</v>
@@ -4924,8 +4932,8 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" s="5">
-        <v>552</v>
+      <c r="A165" s="8">
+        <v>150</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>9</v>
@@ -4947,8 +4955,8 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="5">
-        <v>553</v>
+      <c r="A166" s="8">
+        <v>150</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>7</v>
@@ -4970,8 +4978,8 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="5">
-        <v>554</v>
+      <c r="A167" s="8">
+        <v>150</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>9</v>
@@ -4993,8 +5001,8 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="5">
-        <v>555</v>
+      <c r="A168" s="8">
+        <v>150</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>7</v>
@@ -5016,8 +5024,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="5">
-        <v>556</v>
+      <c r="A169" s="8">
+        <v>150</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>9</v>
@@ -5039,8 +5047,8 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="5">
-        <v>557</v>
+      <c r="A170" s="8">
+        <v>150</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>7</v>
@@ -5062,8 +5070,8 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="5">
-        <v>558</v>
+      <c r="A171" s="8">
+        <v>150</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>9</v>
@@ -5085,8 +5093,8 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="5">
-        <v>559</v>
+      <c r="A172" s="8">
+        <v>150</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>7</v>
@@ -5108,8 +5116,8 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="5">
-        <v>560</v>
+      <c r="A173" s="8">
+        <v>150</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>9</v>
@@ -5131,8 +5139,8 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="5">
-        <v>561</v>
+      <c r="A174" s="8">
+        <v>150</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>7</v>
@@ -5154,8 +5162,8 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="5">
-        <v>562</v>
+      <c r="A175" s="8">
+        <v>150</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>9</v>
@@ -5177,8 +5185,8 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="5">
-        <v>563</v>
+      <c r="A176" s="8">
+        <v>150</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>7</v>
@@ -5200,8 +5208,8 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="5">
-        <v>564</v>
+      <c r="A177" s="8">
+        <v>150</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>9</v>
@@ -5223,8 +5231,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="5">
-        <v>565</v>
+      <c r="A178" s="8">
+        <v>150</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>7</v>
@@ -5246,8 +5254,8 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="5">
-        <v>566</v>
+      <c r="A179" s="8">
+        <v>150</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>9</v>
@@ -5269,8 +5277,8 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="5">
-        <v>567</v>
+      <c r="A180" s="8">
+        <v>151</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>7</v>
@@ -5292,8 +5300,8 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="5">
-        <v>568</v>
+      <c r="A181" s="8">
+        <v>151</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>9</v>
@@ -5315,8 +5323,8 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="5">
-        <v>569</v>
+      <c r="A182" s="8">
+        <v>151</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>7</v>
@@ -5338,8 +5346,8 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
-        <v>570</v>
+      <c r="A183" s="8">
+        <v>151</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>9</v>
@@ -5361,8 +5369,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
-        <v>571</v>
+      <c r="A184" s="8">
+        <v>151</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>7</v>
@@ -5384,8 +5392,8 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="5">
-        <v>572</v>
+      <c r="A185" s="8">
+        <v>151</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>9</v>
@@ -5407,8 +5415,8 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="5">
-        <v>573</v>
+      <c r="A186" s="8">
+        <v>152</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>7</v>
@@ -5430,8 +5438,8 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="5">
-        <v>574</v>
+      <c r="A187" s="8">
+        <v>152</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>9</v>
@@ -5453,8 +5461,8 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="5">
-        <v>575</v>
+      <c r="A188" s="8">
+        <v>152</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>7</v>
@@ -5476,8 +5484,8 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="5">
-        <v>576</v>
+      <c r="A189" s="8">
+        <v>152</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>9</v>
@@ -5499,8 +5507,8 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="5">
-        <v>577</v>
+      <c r="A190" s="8">
+        <v>152</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>7</v>
@@ -5522,8 +5530,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="5">
-        <v>578</v>
+      <c r="A191" s="8">
+        <v>152</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>9</v>
@@ -5545,8 +5553,8 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="5">
-        <v>579</v>
+      <c r="A192" s="8">
+        <v>153</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>7</v>
@@ -5568,8 +5576,8 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="5">
-        <v>580</v>
+      <c r="A193" s="8">
+        <v>153</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>9</v>
@@ -5591,8 +5599,8 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="5">
-        <v>581</v>
+      <c r="A194" s="8">
+        <v>153</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>7</v>
@@ -5614,8 +5622,8 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="5">
-        <v>582</v>
+      <c r="A195" s="8">
+        <v>153</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>9</v>
@@ -5637,8 +5645,8 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="5">
-        <v>583</v>
+      <c r="A196" s="8">
+        <v>153</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>7</v>
@@ -5660,8 +5668,8 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="5">
-        <v>584</v>
+      <c r="A197" s="8">
+        <v>153</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>9</v>
@@ -5683,8 +5691,8 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="5">
-        <v>585</v>
+      <c r="A198" s="8">
+        <v>153</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>7</v>
@@ -5706,8 +5714,8 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="5">
-        <v>586</v>
+      <c r="A199" s="8">
+        <v>153</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>9</v>
@@ -5729,8 +5737,8 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" s="5">
-        <v>587</v>
+      <c r="A200" s="8">
+        <v>153</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>7</v>
@@ -5752,8 +5760,8 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
-        <v>588</v>
+      <c r="A201" s="8">
+        <v>153</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>9</v>
@@ -5775,8 +5783,8 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
-        <v>589</v>
+      <c r="A202" s="8">
+        <v>153</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>7</v>
@@ -5798,8 +5806,8 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
-        <v>590</v>
+      <c r="A203" s="8">
+        <v>153</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>9</v>
@@ -5821,8 +5829,8 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
-        <v>591</v>
+      <c r="A204" s="8">
+        <v>154</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>7</v>
@@ -5844,8 +5852,8 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
-        <v>592</v>
+      <c r="A205" s="8">
+        <v>154</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>9</v>
@@ -5867,8 +5875,8 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
-        <v>593</v>
+      <c r="A206" s="8">
+        <v>154</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>7</v>
@@ -5890,8 +5898,8 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
-        <v>594</v>
+      <c r="A207" s="8">
+        <v>154</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>9</v>
@@ -5913,8 +5921,8 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
-        <v>595</v>
+      <c r="A208" s="8">
+        <v>154</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>7</v>
@@ -5936,8 +5944,8 @@
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
-        <v>596</v>
+      <c r="A209" s="8">
+        <v>154</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>9</v>
@@ -5959,8 +5967,8 @@
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
-        <v>597</v>
+      <c r="A210" s="8">
+        <v>154</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>7</v>
@@ -5982,8 +5990,8 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
-        <v>598</v>
+      <c r="A211" s="8">
+        <v>154</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>9</v>
@@ -6005,8 +6013,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
-        <v>599</v>
+      <c r="A212" s="8">
+        <v>155</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>7</v>
@@ -6028,8 +6036,8 @@
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="5">
-        <v>600</v>
+      <c r="A213" s="8">
+        <v>155</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>9</v>
@@ -6051,8 +6059,8 @@
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
-        <v>601</v>
+      <c r="A214" s="8">
+        <v>155</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>7</v>
@@ -6074,8 +6082,8 @@
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="5">
-        <v>602</v>
+      <c r="A215" s="8">
+        <v>155</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>9</v>
@@ -6097,8 +6105,8 @@
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
-        <v>603</v>
+      <c r="A216" s="8">
+        <v>155</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>7</v>
@@ -6120,8 +6128,8 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="5">
-        <v>604</v>
+      <c r="A217" s="8">
+        <v>155</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>9</v>
@@ -6143,8 +6151,8 @@
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="5">
-        <v>605</v>
+      <c r="A218" s="8">
+        <v>156</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>7</v>
@@ -6166,8 +6174,8 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="5">
-        <v>606</v>
+      <c r="A219" s="8">
+        <v>156</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>9</v>
@@ -6189,8 +6197,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="5">
-        <v>607</v>
+      <c r="A220" s="8">
+        <v>156</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>7</v>
@@ -6212,8 +6220,8 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="5">
-        <v>608</v>
+      <c r="A221" s="8">
+        <v>156</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>9</v>
@@ -6235,8 +6243,8 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="5">
-        <v>609</v>
+      <c r="A222" s="8">
+        <v>156</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>7</v>
@@ -6258,8 +6266,8 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="5">
-        <v>610</v>
+      <c r="A223" s="8">
+        <v>156</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>9</v>
@@ -6281,8 +6289,8 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="5">
-        <v>611</v>
+      <c r="A224" s="8">
+        <v>156</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>7</v>
@@ -6304,8 +6312,8 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="5">
-        <v>612</v>
+      <c r="A225" s="8">
+        <v>156</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>9</v>
@@ -6327,8 +6335,8 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="5">
-        <v>613</v>
+      <c r="A226" s="8">
+        <v>157</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>7</v>
@@ -6350,8 +6358,8 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="5">
-        <v>614</v>
+      <c r="A227" s="8">
+        <v>157</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>9</v>
@@ -6373,8 +6381,8 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="5">
-        <v>615</v>
+      <c r="A228" s="8">
+        <v>157</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>7</v>
@@ -6396,8 +6404,8 @@
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="5">
-        <v>616</v>
+      <c r="A229" s="8">
+        <v>157</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>9</v>
@@ -6419,8 +6427,8 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="5">
-        <v>617</v>
+      <c r="A230" s="8">
+        <v>157</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>7</v>
@@ -6442,8 +6450,8 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="5">
-        <v>618</v>
+      <c r="A231" s="8">
+        <v>157</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>9</v>
@@ -6465,8 +6473,8 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="5">
-        <v>619</v>
+      <c r="A232" s="8">
+        <v>157</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>7</v>
@@ -6488,8 +6496,8 @@
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="5">
-        <v>620</v>
+      <c r="A233" s="8">
+        <v>157</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>9</v>
@@ -6511,8 +6519,8 @@
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="5">
-        <v>621</v>
+      <c r="A234" s="8">
+        <v>158</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>7</v>
@@ -6534,8 +6542,8 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="5">
-        <v>622</v>
+      <c r="A235" s="8">
+        <v>158</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>7</v>
@@ -6557,8 +6565,8 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="5">
-        <v>623</v>
+      <c r="A236" s="8">
+        <v>158</v>
       </c>
       <c r="B236" s="5" t="s">
         <v>9</v>
@@ -6580,8 +6588,8 @@
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="5">
-        <v>624</v>
+      <c r="A237" s="8">
+        <v>158</v>
       </c>
       <c r="B237" s="5" t="s">
         <v>7</v>
@@ -6603,8 +6611,8 @@
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="5">
-        <v>625</v>
+      <c r="A238" s="8">
+        <v>158</v>
       </c>
       <c r="B238" s="5" t="s">
         <v>9</v>
@@ -6626,8 +6634,8 @@
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="5">
-        <v>626</v>
+      <c r="A239" s="8">
+        <v>159</v>
       </c>
       <c r="B239" s="5" t="s">
         <v>7</v>
@@ -6649,8 +6657,8 @@
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="5">
-        <v>627</v>
+      <c r="A240" s="8">
+        <v>159</v>
       </c>
       <c r="B240" s="5" t="s">
         <v>9</v>
@@ -6672,8 +6680,8 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="5">
-        <v>628</v>
+      <c r="A241" s="8">
+        <v>159</v>
       </c>
       <c r="B241" s="5" t="s">
         <v>7</v>
@@ -6695,8 +6703,8 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="5">
-        <v>629</v>
+      <c r="A242" s="8">
+        <v>159</v>
       </c>
       <c r="B242" s="5" t="s">
         <v>9</v>
@@ -6718,8 +6726,8 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="5">
-        <v>630</v>
+      <c r="A243" s="8">
+        <v>159</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>7</v>
@@ -6741,8 +6749,8 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="5">
-        <v>631</v>
+      <c r="A244" s="8">
+        <v>159</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>9</v>
@@ -6764,8 +6772,8 @@
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="5">
-        <v>632</v>
+      <c r="A245" s="8">
+        <v>160</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>7</v>
@@ -6787,8 +6795,8 @@
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="5">
-        <v>633</v>
+      <c r="A246" s="8">
+        <v>160</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>9</v>
@@ -6810,8 +6818,8 @@
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="5">
-        <v>634</v>
+      <c r="A247" s="8">
+        <v>160</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>7</v>
@@ -6833,8 +6841,8 @@
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="5">
-        <v>635</v>
+      <c r="A248" s="8">
+        <v>160</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>9</v>
@@ -6856,8 +6864,8 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" s="5">
-        <v>636</v>
+      <c r="A249" s="8">
+        <v>161</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>7</v>
@@ -6879,8 +6887,8 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" s="5">
-        <v>637</v>
+      <c r="A250" s="8">
+        <v>161</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>9</v>
@@ -6902,8 +6910,8 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" s="5">
-        <v>638</v>
+      <c r="A251" s="8">
+        <v>161</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>7</v>
@@ -6925,8 +6933,8 @@
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" s="5">
-        <v>639</v>
+      <c r="A252" s="8">
+        <v>161</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>9</v>
@@ -6948,8 +6956,8 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="5">
-        <v>640</v>
+      <c r="A253" s="8">
+        <v>162</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>7</v>
@@ -6971,8 +6979,8 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" s="5">
-        <v>641</v>
+      <c r="A254" s="8">
+        <v>162</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>9</v>
@@ -6994,8 +7002,8 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A255" s="5">
-        <v>642</v>
+      <c r="A255" s="8">
+        <v>162</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>7</v>
@@ -7017,8 +7025,8 @@
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A256" s="5">
-        <v>643</v>
+      <c r="A256" s="8">
+        <v>162</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>9</v>
@@ -7040,8 +7048,8 @@
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A257" s="5">
-        <v>644</v>
+      <c r="A257" s="8">
+        <v>163</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>7</v>
@@ -7063,8 +7071,8 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A258" s="5">
-        <v>645</v>
+      <c r="A258" s="8">
+        <v>163</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>9</v>
@@ -7086,8 +7094,8 @@
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="5">
-        <v>646</v>
+      <c r="A259" s="8">
+        <v>163</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>7</v>
@@ -7109,8 +7117,8 @@
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A260" s="5">
-        <v>647</v>
+      <c r="A260" s="8">
+        <v>163</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>9</v>
@@ -7132,8 +7140,8 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A261" s="5">
-        <v>648</v>
+      <c r="A261" s="8">
+        <v>163</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>7</v>
@@ -7155,8 +7163,8 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A262" s="5">
-        <v>649</v>
+      <c r="A262" s="8">
+        <v>163</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>9</v>
@@ -7178,8 +7186,8 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" s="5">
-        <v>650</v>
+      <c r="A263" s="8">
+        <v>164</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>7</v>
@@ -7201,8 +7209,8 @@
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A264" s="5">
-        <v>651</v>
+      <c r="A264" s="8">
+        <v>164</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>9</v>
@@ -7224,8 +7232,8 @@
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="5">
-        <v>652</v>
+      <c r="A265" s="8">
+        <v>164</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>7</v>
@@ -7247,8 +7255,8 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A266" s="5">
-        <v>653</v>
+      <c r="A266" s="8">
+        <v>164</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>9</v>
@@ -7270,8 +7278,8 @@
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A267" s="5">
-        <v>654</v>
+      <c r="A267" s="8">
+        <v>165</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>7</v>
@@ -7293,8 +7301,8 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" s="5">
-        <v>655</v>
+      <c r="A268" s="8">
+        <v>165</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>9</v>
@@ -7316,8 +7324,8 @@
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A269" s="5">
-        <v>656</v>
+      <c r="A269" s="8">
+        <v>165</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>7</v>
@@ -7339,8 +7347,8 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A270" s="5">
-        <v>657</v>
+      <c r="A270" s="8">
+        <v>165</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>9</v>
@@ -7362,8 +7370,8 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" s="5">
-        <v>658</v>
+      <c r="A271" s="8">
+        <v>166</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>7</v>
@@ -7385,8 +7393,8 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A272" s="5">
-        <v>659</v>
+      <c r="A272" s="8">
+        <v>166</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>9</v>
@@ -7408,8 +7416,8 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" s="5">
-        <v>660</v>
+      <c r="A273" s="8">
+        <v>166</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>7</v>
@@ -7431,8 +7439,8 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" s="5">
-        <v>661</v>
+      <c r="A274" s="8">
+        <v>166</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>9</v>
@@ -7454,8 +7462,8 @@
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A275" s="5">
-        <v>662</v>
+      <c r="A275" s="8">
+        <v>167</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>7</v>
@@ -7477,8 +7485,8 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A276" s="5">
-        <v>663</v>
+      <c r="A276" s="8">
+        <v>167</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>9</v>
@@ -7500,8 +7508,8 @@
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A277" s="5">
-        <v>664</v>
+      <c r="A277" s="8">
+        <v>167</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>7</v>
@@ -7523,8 +7531,8 @@
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="5">
-        <v>665</v>
+      <c r="A278" s="8">
+        <v>167</v>
       </c>
       <c r="B278" s="5" t="s">
         <v>9</v>
@@ -7546,8 +7554,8 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="5">
-        <v>666</v>
+      <c r="A279" s="8">
+        <v>168</v>
       </c>
       <c r="B279" s="5" t="s">
         <v>7</v>
@@ -7569,8 +7577,8 @@
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="5">
-        <v>667</v>
+      <c r="A280" s="8">
+        <v>168</v>
       </c>
       <c r="B280" s="5" t="s">
         <v>9</v>
@@ -7592,8 +7600,8 @@
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A281" s="5">
-        <v>668</v>
+      <c r="A281" s="8">
+        <v>168</v>
       </c>
       <c r="B281" s="5" t="s">
         <v>7</v>
@@ -7615,8 +7623,8 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A282" s="5">
-        <v>669</v>
+      <c r="A282" s="8">
+        <v>168</v>
       </c>
       <c r="B282" s="5" t="s">
         <v>9</v>
@@ -7638,8 +7646,8 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="5">
-        <v>670</v>
+      <c r="A283" s="8">
+        <v>168</v>
       </c>
       <c r="B283" s="5" t="s">
         <v>7</v>
@@ -7661,8 +7669,8 @@
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="5">
-        <v>671</v>
+      <c r="A284" s="8">
+        <v>168</v>
       </c>
       <c r="B284" s="5" t="s">
         <v>9</v>
@@ -7684,8 +7692,8 @@
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="5">
-        <v>672</v>
+      <c r="A285" s="8">
+        <v>168</v>
       </c>
       <c r="B285" s="5" t="s">
         <v>7</v>
@@ -7707,8 +7715,8 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" s="5">
-        <v>673</v>
+      <c r="A286" s="8">
+        <v>168</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>9</v>
@@ -7730,8 +7738,8 @@
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A287" s="5">
-        <v>674</v>
+      <c r="A287" s="8">
+        <v>168</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>7</v>
@@ -7753,8 +7761,8 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" s="5">
-        <v>675</v>
+      <c r="A288" s="8">
+        <v>168</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>9</v>
@@ -7776,8 +7784,8 @@
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="5">
-        <v>676</v>
+      <c r="A289" s="8">
+        <v>169</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>7</v>
@@ -7799,8 +7807,8 @@
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" s="5">
-        <v>677</v>
+      <c r="A290" s="8">
+        <v>169</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>9</v>
@@ -7822,8 +7830,8 @@
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="5">
-        <v>678</v>
+      <c r="A291" s="8">
+        <v>169</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>7</v>
@@ -7845,8 +7853,8 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" s="5">
-        <v>679</v>
+      <c r="A292" s="8">
+        <v>169</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>9</v>
@@ -7868,8 +7876,8 @@
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A293" s="5">
-        <v>680</v>
+      <c r="A293" s="8">
+        <v>169</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>7</v>
@@ -7891,8 +7899,8 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A294" s="5">
-        <v>681</v>
+      <c r="A294" s="8">
+        <v>169</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>9</v>
@@ -7914,8 +7922,8 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="5">
-        <v>682</v>
+      <c r="A295" s="8">
+        <v>170</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>7</v>
@@ -7937,8 +7945,8 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" s="5">
-        <v>683</v>
+      <c r="A296" s="8">
+        <v>170</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>9</v>
@@ -7960,8 +7968,8 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="5">
-        <v>684</v>
+      <c r="A297" s="8">
+        <v>170</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>7</v>
@@ -7983,8 +7991,8 @@
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A298" s="5">
-        <v>685</v>
+      <c r="A298" s="8">
+        <v>170</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>9</v>
@@ -8006,8 +8014,8 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A299" s="5">
-        <v>686</v>
+      <c r="A299" s="8">
+        <v>171</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>7</v>
@@ -8029,8 +8037,8 @@
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A300" s="5">
-        <v>687</v>
+      <c r="A300" s="8">
+        <v>171</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>9</v>
@@ -8052,8 +8060,8 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A301" s="5">
-        <v>688</v>
+      <c r="A301" s="8">
+        <v>171</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>7</v>
@@ -8075,8 +8083,8 @@
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="5">
-        <v>689</v>
+      <c r="A302" s="8">
+        <v>171</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>9</v>
@@ -8098,8 +8106,8 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="5">
-        <v>690</v>
+      <c r="A303" s="8">
+        <v>172</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>7</v>
@@ -8121,8 +8129,8 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A304" s="5">
-        <v>691</v>
+      <c r="A304" s="8">
+        <v>172</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>9</v>
@@ -8144,8 +8152,8 @@
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A305" s="5">
-        <v>692</v>
+      <c r="A305" s="8">
+        <v>172</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>7</v>
@@ -8167,8 +8175,8 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A306" s="5">
-        <v>693</v>
+      <c r="A306" s="8">
+        <v>172</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>9</v>
@@ -8190,8 +8198,8 @@
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A307" s="5">
-        <v>694</v>
+      <c r="A307" s="8">
+        <v>173</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>7</v>
@@ -8213,8 +8221,8 @@
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" s="5">
-        <v>695</v>
+      <c r="A308" s="8">
+        <v>173</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>9</v>
@@ -8236,8 +8244,8 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="5">
-        <v>696</v>
+      <c r="A309" s="8">
+        <v>173</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>7</v>
@@ -8259,8 +8267,8 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A310" s="5">
-        <v>697</v>
+      <c r="A310" s="8">
+        <v>173</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>9</v>
